--- a/version2/Excels/20_x_2.3k_dataset_results.xlsx
+++ b/version2/Excels/20_x_2.3k_dataset_results.xlsx
@@ -1,55 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Reduction_70pct" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Reduction_50pct" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Reduction_30pct" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Reduction_10pct" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Summary" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="All Results" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet r:id="rId1" sheetId="1" name="Dataset Info"/>
+    <sheet r:id="rId2" sheetId="2" name="Reduction_70pct"/>
+    <sheet r:id="rId3" sheetId="3" name="Reduction_50pct"/>
+    <sheet r:id="rId4" sheetId="4" name="Reduction_30pct"/>
+    <sheet r:id="rId5" sheetId="5" name="Reduction_10pct"/>
+    <sheet r:id="rId6" sheetId="6" name="Summary"/>
+    <sheet r:id="rId7" sheetId="7" name="All Results"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+  <si>
+    <t>Reduction %</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>NRP Distortion</t>
+  </si>
+  <si>
+    <t>PMRP Distortion</t>
+  </si>
+  <si>
+    <t>HRP Distortion</t>
+  </si>
+  <si>
+    <t>Target Dimension (k)</t>
+  </si>
+  <si>
+    <t>Best Alpha</t>
+  </si>
+  <si>
+    <t>Minimum HRP Distortion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?. </t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Dataset Name</t>
+  </si>
+  <si>
+    <t>20_x_2.3k_dataset</t>
+  </si>
+  <si>
+    <t>Dataset Path</t>
+  </si>
+  <si>
+    <t>version2/20_x_2.3k_dataset.csv</t>
+  </si>
+  <si>
+    <t>Total Available Samples</t>
+  </si>
+  <si>
+    <t>Total Available Features</t>
+  </si>
+  <si>
+    <t>Samples Used</t>
+  </si>
+  <si>
+    <t>Features Used</t>
+  </si>
+  <si>
+    <t>Random State</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>20260218_232825</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
       <sz val="12"/>
+      <color rgb="FFffffff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F4E78"/>
-        <bgColor rgb="001F4E78"/>
+        <fgColor rgb="FF1f4e78"/>
       </patternFill>
     </fill>
   </fills>
@@ -63,106 +142,63 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00CCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="thin">
-        <color rgb="00CCCCCC"/>
+        <color rgb="FFcccccc"/>
       </right>
       <top style="thin">
-        <color rgb="00CCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="thin">
-        <color rgb="00CCCCCC"/>
+        <color rgb="FFcccccc"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,10 +207,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -212,69 +248,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -298,54 +336,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -355,7 +392,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -364,7 +401,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -373,7 +410,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -381,10 +418,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -413,7 +450,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -426,13 +463,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -450,1968 +486,1869 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" style="9" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="32.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Property</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Dataset Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>20_x_2.3k_dataset</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Dataset Path</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>version2/20_x_2.3k_dataset.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Total Available Samples</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
         <v>2310</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Total Available Features</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Samples Used</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
         <v>2310</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Features Used</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Random State</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="B7" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>20260218_232825</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="20.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Alpha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NRP Distortion</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PMRP Distortion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HRP Distortion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.1407884266734387</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>0.1114107985189814</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>0.1390710138270276</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
         <v>0.3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>0.20150825260179</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>0.2464898914316148</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
         <v>0.5</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>0.2658576326436608</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>0.2582405751947066</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>0.2308444458661456</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
         <v>0.8</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>0.2008374803788895</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
         <v>0.9</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>0.1806205676288941</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>0.1801613472123478</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Alpha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NRP Distortion</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PMRP Distortion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HRP Distortion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.1133031211446982</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>0.1173096924916746</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>0.1562151636535697</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
         <v>0.3</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>0.19741584896664</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>0.2277759744160242</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
         <v>0.5</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C7" s="3" t="n">
+      <c r="B7" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>0.24162878926162</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C8" s="3" t="n">
+      <c r="B8" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>0.2359978311883819</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B9" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C9" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>0.2106166862712411</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
         <v>0.8</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="B10" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>0.1693796314722241</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
         <v>0.9</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C11" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>0.1224132065704542</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="C12" s="3" t="n">
+      <c r="B12" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="C12" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>0.09165109053617491</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="20.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Alpha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NRP Distortion</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PMRP Distortion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HRP Distortion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.2095743882139283</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>0.1947279130082696</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>0.2193700196720143</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
         <v>0.3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>0.2692773338658116</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>0.3298229166532371</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
         <v>0.5</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>0.3814358172060355</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>0.4175218457232184</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>0.4344329689744086</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
         <v>0.8</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>0.4291799561320842</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
         <v>0.9</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>0.400579490339552</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>0.3506090996501862</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="20.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Alpha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NRP Distortion</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PMRP Distortion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HRP Distortion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.4322929760099583</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>0.4079099128859086</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>0.4222023578309239</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
         <v>0.3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>0.487428570821275</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>0.5945032679904328</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
         <v>0.5</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>0.7016760422336306</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>0.7903008905936758</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>0.8247370629474517</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
         <v>0.8</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>0.7735649466238125</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
         <v>0.9</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>0.6785996902118652</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>0.5698402131239834</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="24.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Reduction %</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Target Dimension (k)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Best Alpha</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Minimum HRP Distortion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>0.1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.1114107985189814</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="D3" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>0.1947279130082696</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>0.1</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>0.4079099128859086</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="21.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Reduction %</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Alpha</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NRP Distortion</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PMRP Distortion</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>HRP Distortion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>0.1407884266734387</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>70</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>0.1</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>0.1114107985189814</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>70</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>0.2</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>0.1390710138270276</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>70</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>0.3</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>0.20150825260179</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>70</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>0.4</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>0.2464898914316148</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>70</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>0.5</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>0.2658576326436608</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>70</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>0.2582405751947066</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>0.2308444458661456</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>0.8</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>0.2008374803788895</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>70</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>0.9</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>0.1806205676288941</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>70</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>0.1801613472123478</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4">
         <v>0.1475208956972061</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4">
         <v>0.1801613472123478</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E13" s="3" t="n">
+      <c r="D13" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4">
         <v>0.1133031211446982</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4">
         <v>0.1</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="D14" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4">
         <v>0.1173096924916746</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4">
         <v>0.2</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="D15" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4">
         <v>0.1562151636535697</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4">
         <v>0.3</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E16" s="3" t="n">
+      <c r="D16" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4">
         <v>0.19741584896664</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4">
         <v>0.4</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E17" s="3" t="n">
+      <c r="D17" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4">
         <v>0.2277759744160242</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4">
         <v>0.5</v>
       </c>
-      <c r="D18" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E18" s="3" t="n">
+      <c r="D18" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E18" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4">
         <v>0.24162878926162</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E19" s="3" t="n">
+      <c r="D19" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4">
         <v>0.2359978311883819</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E20" s="3" t="n">
+      <c r="D20" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4">
         <v>0.2106166862712411</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3">
         <v>9</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4">
         <v>0.8</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E21" s="3" t="n">
+      <c r="D21" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E21" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4">
         <v>0.1693796314722241</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3">
         <v>9</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4">
         <v>0.9</v>
       </c>
-      <c r="D22" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E22" s="3" t="n">
+      <c r="D22" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4">
         <v>0.1224132065704542</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-      <c r="E23" s="3" t="n">
+      <c r="D23" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.1427572165754601</v>
       </c>
-      <c r="F23" s="3" t="n">
-        <v>0.09165109053617491</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="F23" s="4">
+        <v>0.09165109053617491</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
         <v>30</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="4">
         <v>0.2095743882139283</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>30</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4">
         <v>0.1</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="4">
         <v>0.1947279130082696</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4">
         <v>0.2</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4">
         <v>0.2193700196720143</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3">
         <v>30</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4">
         <v>0.3</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="4">
         <v>0.2692773338658116</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4">
         <v>0.4</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="4">
         <v>0.3298229166532371</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4">
         <v>0.5</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4">
         <v>0.3814358172060355</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="4">
         <v>0.4175218457232184</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="4">
         <v>0.4344329689744086</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4">
         <v>0.8</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="4">
         <v>0.4291799561320842</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4">
         <v>0.9</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="4">
         <v>0.400579490339552</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="4">
         <v>0.3506090996501862</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="4">
         <v>0.2801076267479032</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="4">
         <v>0.3506090996501862</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3">
         <v>10</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="3">
         <v>0</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="4">
         <v>0.4322929760099583</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3">
         <v>10</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4">
         <v>0.1</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="4">
         <v>0.4079099128859086</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3">
         <v>10</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="4">
         <v>0.2</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="4">
         <v>0.4222023578309239</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="4">
         <v>0.3</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="4">
         <v>0.487428570821275</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3">
         <v>10</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="4">
         <v>0.4</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="4">
         <v>0.5945032679904328</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="4">
         <v>0.5</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="4">
         <v>0.7016760422336306</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3">
         <v>10</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="4">
         <v>0.6000000000000001</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="4">
         <v>0.7903008905936758</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3">
         <v>10</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="4">
         <v>0.7000000000000001</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="4">
         <v>0.8247370629474517</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3">
         <v>10</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="4">
         <v>0.8</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="4">
         <v>0.7735649466238125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3">
         <v>10</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="4">
         <v>0.9</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="4">
         <v>0.6785996902118652</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="3">
         <v>10</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="4">
         <v>0.5698402131239834</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="4">
         <v>0.4359824052095583</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="F45" s="4">
         <v>0.5698402131239834</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>